--- a/folderhelper/folder_link.xlsx
+++ b/folderhelper/folder_link.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>index</t>
   </si>
@@ -44,6 +44,150 @@
   </si>
   <si>
     <t>D:\360极速浏览器下载</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>case04</t>
+  </si>
+  <si>
+    <t>case05</t>
+  </si>
+  <si>
+    <t>case06</t>
+  </si>
+  <si>
+    <t>case07</t>
+  </si>
+  <si>
+    <t>case08</t>
+  </si>
+  <si>
+    <t>case09</t>
+  </si>
+  <si>
+    <t>case10</t>
+  </si>
+  <si>
+    <t>case11</t>
+  </si>
+  <si>
+    <t>case12</t>
+  </si>
+  <si>
+    <t>case13</t>
+  </si>
+  <si>
+    <t>case14</t>
+  </si>
+  <si>
+    <t>case15</t>
+  </si>
+  <si>
+    <t>case16</t>
+  </si>
+  <si>
+    <t>case17</t>
+  </si>
+  <si>
+    <t>case18</t>
+  </si>
+  <si>
+    <t>case19</t>
+  </si>
+  <si>
+    <t>case20</t>
+  </si>
+  <si>
+    <t>case21</t>
+  </si>
+  <si>
+    <t>case22</t>
+  </si>
+  <si>
+    <t>case23</t>
+  </si>
+  <si>
+    <t>case24</t>
+  </si>
+  <si>
+    <t>case25</t>
+  </si>
+  <si>
+    <t>case26</t>
+  </si>
+  <si>
+    <t>case27</t>
   </si>
 </sst>
 </file>
@@ -393,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,6 +589,270 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
